--- a/lua.xlsx
+++ b/lua.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD7EA2-AE2A-45C8-B605-AEEFE3AF5EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="env upvalue" sheetId="1" r:id="rId1"/>
@@ -18,13 +17,14 @@
     <sheet name="parser" sheetId="9" r:id="rId8"/>
     <sheet name="data-pushstring" sheetId="10" r:id="rId9"/>
     <sheet name=" data-pushnumber" sheetId="11" r:id="rId10"/>
+    <sheet name="字节码" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="476">
   <si>
     <t>lua5.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1491,13 +1491,133 @@
   </si>
   <si>
     <t>luaD_precall (lua_State *L, StkId func, int nresults)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constants (24) for 0xf45a20:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1       "ppp"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2       10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3       30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        4       ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        5       "aaa"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        6       1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        7       "bbb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        8       "abcdef"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        9       "ccc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10      "ddd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11      "cc1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12      "abcdef1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13      "vvv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14      "d"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15      20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16      2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        17      "hhh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18      "dd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        19      200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20      "cc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21      "dddd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        22      999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        23      "collectgarbage"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        24      "collect"</t>
+  </si>
+  <si>
+    <t>local a = {10,30,""};</t>
+  </si>
+  <si>
+    <t>a['aaa'] = 1000</t>
+  </si>
+  <si>
+    <t>a['bbb']='abcdef'</t>
+  </si>
+  <si>
+    <t>a['ccc']='abcdef'</t>
+  </si>
+  <si>
+    <t>a['ddd']='abcdef'</t>
+  </si>
+  <si>
+    <t>a['cc1']='abcdef1'</t>
+  </si>
+  <si>
+    <t>a.vvv = "d"</t>
+  </si>
+  <si>
+    <t>不管一个lua文件中定义了多少份相同的字符串，其实在常量区都只存在一份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以不要怕内存浪费（不过也是会解析和排查是否已经存在）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUA文件的常量区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一份数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luac -l -l hello.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看字节码指令：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1748,23 +1868,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1800,23 +1903,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1992,7 +2078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F54"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2326,7 +2412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2404,8 +2490,213 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2498,7 +2789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2646,7 +2937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2839,10 +3130,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -3024,7 +3315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3205,7 +3496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3257,7 +3548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M262"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -4506,7 +4797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
